--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1913.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1913.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.803192030674291</v>
+        <v>1.42151153087616</v>
       </c>
       <c r="B1">
-        <v>3.174277711668619</v>
+        <v>1.657349944114685</v>
       </c>
       <c r="C1">
-        <v>2.321750134160903</v>
+        <v>5.115967750549316</v>
       </c>
       <c r="D1">
-        <v>2.138323682133332</v>
+        <v>2.84512996673584</v>
       </c>
       <c r="E1">
-        <v>1.909532256883984</v>
+        <v>0.871090829372406</v>
       </c>
     </row>
   </sheetData>
